--- a/data/trans_orig/IP1001-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1001-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1005A23-BBBF-4BED-8594-C8ACAF7CDD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8214233A-F66D-43F7-9D30-3749D3C69CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{125691C1-5C18-4A94-9A52-F7CD70A8BC42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD1B9804-1DEE-4FB8-BF3E-AD46410E9F92}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="276">
   <si>
     <t>Menores según si padecen asma en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -107,742 +107,766 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>7,23%</t>
+    <t>7,28%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>95,0%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>95,04%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
     <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A597795B-9284-45B4-8FBC-B2538D5F9181}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C251396D-315D-4489-AF8A-66C46C5498CC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1998,7 +2022,7 @@
         <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2007,13 +2031,13 @@
         <v>20535</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -2022,13 +2046,13 @@
         <v>39811</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2067,13 @@
         <v>703423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>987</v>
@@ -2058,13 +2082,13 @@
         <v>660486</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>2044</v>
@@ -2073,13 +2097,13 @@
         <v>1363910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,7 +2159,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46475979-5F04-43CC-AC19-4D14BB01D52F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF95084-B2BE-4794-A2BB-8717383ECC7F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2172,7 +2196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2428,13 +2452,13 @@
         <v>3629</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2443,13 +2467,13 @@
         <v>3535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2458,13 +2482,13 @@
         <v>7165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2503,13 @@
         <v>79908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -2494,13 +2518,13 @@
         <v>88354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>241</v>
@@ -2509,13 +2533,13 @@
         <v>168260</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2607,13 @@
         <v>11218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2598,13 +2622,13 @@
         <v>9470</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2613,13 +2637,13 @@
         <v>20688</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2658,13 @@
         <v>481801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -2649,13 +2673,13 @@
         <v>440230</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>1327</v>
@@ -2664,13 +2688,13 @@
         <v>922031</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2762,13 @@
         <v>5166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2753,13 +2777,13 @@
         <v>443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2768,13 +2792,13 @@
         <v>5609</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2813,13 @@
         <v>166395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -2804,10 +2828,10 @@
         <v>164897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2819,13 +2843,13 @@
         <v>331292</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,10 +2920,10 @@
         <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2908,13 +2932,13 @@
         <v>13448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2926,10 +2950,10 @@
         <v>39</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2968,13 @@
         <v>728745</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>999</v>
@@ -2959,13 +2983,13 @@
         <v>693480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>2038</v>
@@ -2977,10 +3001,10 @@
         <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,7 +3060,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3056,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48C7FC5-DE77-4B22-8B1A-7EA77F78EADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EA4E4C-1247-4A52-B057-B80AEFBEBD05}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3073,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,13 +3341,13 @@
         <v>1285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3332,13 +3356,13 @@
         <v>4112</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3347,13 +3371,13 @@
         <v>5397</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,10 +3392,10 @@
         <v>67329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -3383,13 +3407,13 @@
         <v>55266</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>180</v>
@@ -3398,13 +3422,13 @@
         <v>122596</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3496,13 @@
         <v>13212</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3487,13 +3511,13 @@
         <v>9910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -3502,13 +3526,13 @@
         <v>23122</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3547,13 @@
         <v>475523</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>700</v>
@@ -3538,13 +3562,13 @@
         <v>462380</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>1376</v>
@@ -3553,13 +3577,13 @@
         <v>937903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3672,7 @@
         <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3696,7 +3720,7 @@
         <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>195</v>
@@ -3785,7 +3809,7 @@
         <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>200</v>
@@ -3803,7 +3827,7 @@
         <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -3812,13 +3836,13 @@
         <v>35014</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3857,13 @@
         <v>725591</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>1038</v>
@@ -3848,13 +3872,13 @@
         <v>688610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>2075</v>
@@ -3863,13 +3887,13 @@
         <v>1414201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3949,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +3969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BB4AC0-911F-41EB-BD88-60EA16ACC03B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A87139-F724-401F-9BC8-02BFDEACDF94}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3962,7 +3986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4218,13 +4242,13 @@
         <v>2229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4233,13 +4257,13 @@
         <v>732</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4248,13 +4272,13 @@
         <v>2961</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4293,13 @@
         <v>56528</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -4284,10 +4308,10 @@
         <v>50470</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -4299,13 +4323,13 @@
         <v>106998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4397,13 @@
         <v>17885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4388,13 +4412,13 @@
         <v>10013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -4403,13 +4427,13 @@
         <v>27898</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4448,13 @@
         <v>474479</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>629</v>
@@ -4439,13 +4463,13 @@
         <v>439123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>1262</v>
@@ -4454,13 +4478,13 @@
         <v>913602</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4552,13 @@
         <v>4574</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4543,13 +4567,13 @@
         <v>3499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4558,13 +4582,13 @@
         <v>8072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4603,13 @@
         <v>170009</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -4594,13 +4618,13 @@
         <v>147871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>459</v>
@@ -4609,13 +4633,13 @@
         <v>317880</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4707,13 @@
         <v>24688</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4698,13 +4722,13 @@
         <v>14243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -4713,13 +4737,13 @@
         <v>38931</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4758,13 @@
         <v>701016</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>923</v>
@@ -4749,13 +4773,13 @@
         <v>638636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>1870</v>
@@ -4764,13 +4788,13 @@
         <v>1339652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4850,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1001-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1001-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8214233A-F66D-43F7-9D30-3749D3C69CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{339A9AC7-5A08-4451-81D1-D6ECB6CAC131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD1B9804-1DEE-4FB8-BF3E-AD46410E9F92}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7D835855-361A-44B1-9C07-60330D0C6D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
   <si>
     <t>Menores según si padecen asma en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,805 +68,808 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
+    <t>3,33%</t>
+  </si>
+  <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>94,56%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
 </sst>
 </file>
@@ -1278,8 +1281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C251396D-315D-4489-AF8A-66C46C5498CC}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDECE868-4E87-4786-ACA1-B48BF54D7413}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1396,10 +1399,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3912</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1411,81 +1414,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2747</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>6659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>86955</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="I5" s="7">
+        <v>84098</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>171053</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1494,151 +1501,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>2747</v>
+        <v>10973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>3912</v>
+        <v>10963</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>6659</v>
+        <v>21936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>126</v>
+        <v>611</v>
       </c>
       <c r="D8" s="7">
-        <v>84097</v>
+        <v>405114</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>130</v>
+        <v>702</v>
       </c>
       <c r="I8" s="7">
-        <v>86955</v>
+        <v>466028</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>256</v>
+        <v>1313</v>
       </c>
       <c r="N8" s="7">
-        <v>171053</v>
+        <v>871142</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,153 +1656,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>10963</v>
+        <v>5650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>10973</v>
+        <v>5567</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>21936</v>
+        <v>11216</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>702</v>
+        <v>246</v>
       </c>
       <c r="D11" s="7">
-        <v>466028</v>
+        <v>168416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>611</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>405114</v>
+        <v>152571</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1313</v>
+        <v>474</v>
       </c>
       <c r="N11" s="7">
-        <v>871142</v>
+        <v>320989</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,153 +1811,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>5567</v>
+        <v>20535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7">
+        <v>29</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19277</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="7">
         <v>60</v>
       </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5650</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="7">
-        <v>16</v>
-      </c>
       <c r="N13" s="7">
-        <v>11216</v>
+        <v>39811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>228</v>
+        <v>987</v>
       </c>
       <c r="D14" s="7">
-        <v>152571</v>
+        <v>660486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>246</v>
+        <v>1056</v>
       </c>
       <c r="I14" s="7">
-        <v>168416</v>
+        <v>702697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>474</v>
+        <v>2043</v>
       </c>
       <c r="N14" s="7">
-        <v>320989</v>
+        <v>1363184</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,216 +1966,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7">
-        <v>19277</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>31</v>
-      </c>
-      <c r="I16" s="7">
-        <v>20535</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>60</v>
-      </c>
-      <c r="N16" s="7">
-        <v>39811</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1057</v>
-      </c>
-      <c r="D17" s="7">
-        <v>703423</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>987</v>
-      </c>
-      <c r="I17" s="7">
-        <v>660486</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2044</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1363910</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2179,8 +2032,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF95084-B2BE-4794-A2BB-8717383ECC7F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F119BD7-A651-4664-A2A1-98F37C4F5BEC}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2196,7 +2049,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2297,96 +2150,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3535</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3629</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>7165</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>88354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I5" s="7">
+        <v>79908</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>168260</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,151 +2252,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>3629</v>
+        <v>9470</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>3535</v>
+        <v>11218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>7165</v>
+        <v>20688</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>113</v>
+        <v>638</v>
       </c>
       <c r="D8" s="7">
-        <v>79908</v>
+        <v>440230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>128</v>
+        <v>689</v>
       </c>
       <c r="I8" s="7">
-        <v>88354</v>
+        <v>481801</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>241</v>
+        <v>1327</v>
       </c>
       <c r="N8" s="7">
-        <v>168260</v>
+        <v>922031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,153 +2407,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>706</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>493019</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1357</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942719</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>11218</v>
+        <v>443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>9470</v>
+        <v>5166</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>20688</v>
+        <v>5609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>689</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>481801</v>
+        <v>164897</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>638</v>
+        <v>236</v>
       </c>
       <c r="I11" s="7">
-        <v>440230</v>
+        <v>166395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
-        <v>1327</v>
+        <v>469</v>
       </c>
       <c r="N11" s="7">
-        <v>922031</v>
+        <v>331292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,153 +2562,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>706</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>493019</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1357</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942719</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>5166</v>
+        <v>13448</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>443</v>
+        <v>20013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>5609</v>
+        <v>33461</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>236</v>
+        <v>999</v>
       </c>
       <c r="D14" s="7">
-        <v>166395</v>
+        <v>693480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>1038</v>
       </c>
       <c r="I14" s="7">
-        <v>164897</v>
+        <v>728104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
-        <v>469</v>
+        <v>2037</v>
       </c>
       <c r="N14" s="7">
-        <v>331292</v>
+        <v>1421584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,216 +2717,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1066</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>748117</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2084</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1455045</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7">
-        <v>20013</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="7">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13448</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" s="7">
-        <v>47</v>
-      </c>
-      <c r="N16" s="7">
-        <v>33461</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1039</v>
-      </c>
-      <c r="D17" s="7">
-        <v>728745</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="7">
-        <v>999</v>
-      </c>
-      <c r="I17" s="7">
-        <v>693480</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2038</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1422225</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1067</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748758</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2085</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455686</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3080,8 +2783,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EA4E4C-1247-4A52-B057-B80AEFBEBD05}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4F5C2A-3F55-4FE0-B6EC-A44A1051B6A7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3097,7 +2800,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3198,88 +2901,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4112</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1285</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5397</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D5" s="7">
+        <v>55266</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="I5" s="7">
+        <v>67329</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="N5" s="7">
+        <v>122596</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,147 +3003,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>1285</v>
+        <v>9910</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>4112</v>
+        <v>13212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>5397</v>
+        <v>23122</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>97</v>
+        <v>700</v>
       </c>
       <c r="D8" s="7">
-        <v>67329</v>
+        <v>462380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
-        <v>83</v>
+        <v>676</v>
       </c>
       <c r="I8" s="7">
-        <v>55266</v>
+        <v>475523</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
+        <v>1376</v>
+      </c>
+      <c r="N8" s="7">
+        <v>937903</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="N8" s="7">
-        <v>122596</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,153 +3158,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>13212</v>
+        <v>1738</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>4757</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6495</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9910</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="7">
-        <v>33</v>
-      </c>
-      <c r="N10" s="7">
-        <v>23122</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>676</v>
+        <v>255</v>
       </c>
       <c r="D11" s="7">
-        <v>475523</v>
+        <v>170965</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
-        <v>700</v>
+        <v>264</v>
       </c>
       <c r="I11" s="7">
-        <v>462380</v>
+        <v>182738</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M11" s="7">
+        <v>519</v>
+      </c>
+      <c r="N11" s="7">
+        <v>353702</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1376</v>
-      </c>
-      <c r="N11" s="7">
-        <v>937903</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,153 +3313,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>4757</v>
+        <v>15761</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>1738</v>
+        <v>19253</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>6495</v>
+        <v>35014</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>264</v>
+        <v>1038</v>
       </c>
       <c r="D14" s="7">
-        <v>182738</v>
+        <v>688610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
-        <v>255</v>
+        <v>1037</v>
       </c>
       <c r="I14" s="7">
-        <v>170965</v>
+        <v>725591</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>519</v>
+        <v>2075</v>
       </c>
       <c r="N14" s="7">
-        <v>353702</v>
+        <v>1414201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,216 +3468,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7">
-        <v>19253</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="7">
-        <v>23</v>
-      </c>
-      <c r="I16" s="7">
-        <v>15761</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M16" s="7">
-        <v>51</v>
-      </c>
-      <c r="N16" s="7">
-        <v>35014</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1037</v>
-      </c>
-      <c r="D17" s="7">
-        <v>725591</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>1038</v>
-      </c>
-      <c r="I17" s="7">
-        <v>688610</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2075</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1414201</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3969,8 +3534,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A87139-F724-401F-9BC8-02BFDEACDF94}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447C25EB-D54E-45A4-8C1F-86D536AE81F7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3986,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4087,96 +3652,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>745</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2313</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3057</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53933</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>59691</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>113625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,151 +3754,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>2229</v>
+        <v>9894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>732</v>
+        <v>18532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>2961</v>
+        <v>28425</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>80</v>
+        <v>629</v>
       </c>
       <c r="D8" s="7">
-        <v>56528</v>
+        <v>449800</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
-        <v>68</v>
+        <v>633</v>
       </c>
       <c r="I8" s="7">
-        <v>50470</v>
+        <v>498087</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
-        <v>148</v>
+        <v>1262</v>
       </c>
       <c r="N8" s="7">
-        <v>106998</v>
+        <v>947888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,153 +3909,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1298</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>976313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>17885</v>
+        <v>3457</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>10013</v>
+        <v>6316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>27898</v>
+        <v>9772</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>633</v>
+        <v>225</v>
       </c>
       <c r="D11" s="7">
-        <v>474479</v>
+        <v>146094</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
-        <v>629</v>
+        <v>234</v>
       </c>
       <c r="I11" s="7">
-        <v>439123</v>
+        <v>177033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
-        <v>1262</v>
+        <v>459</v>
       </c>
       <c r="N11" s="7">
-        <v>913602</v>
+        <v>323128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,153 +4064,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>642</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>449136</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1298</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>941500</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>4574</v>
+        <v>14095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>3499</v>
+        <v>27160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>8072</v>
+        <v>41255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>234</v>
+        <v>922</v>
       </c>
       <c r="D14" s="7">
-        <v>170009</v>
+        <v>649828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
-        <v>225</v>
+        <v>947</v>
       </c>
       <c r="I14" s="7">
-        <v>147871</v>
+        <v>734812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
-        <v>459</v>
+        <v>1869</v>
       </c>
       <c r="N14" s="7">
-        <v>317880</v>
+        <v>1384640</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,216 +4219,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>663923</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1918</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1425895</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7">
-        <v>24688</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H16" s="7">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7">
-        <v>14243</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M16" s="7">
-        <v>49</v>
-      </c>
-      <c r="N16" s="7">
-        <v>38931</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>947</v>
-      </c>
-      <c r="D17" s="7">
-        <v>701016</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H17" s="7">
-        <v>923</v>
-      </c>
-      <c r="I17" s="7">
-        <v>638636</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1870</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1339652</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>977</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1919</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1378583</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
